--- a/data/pca/factorExposure/factorExposure_2012-10-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0009802666085237184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001703884250295217</v>
+      </c>
+      <c r="C2">
+        <v>0.02968786955069986</v>
+      </c>
+      <c r="D2">
+        <v>0.006074839578855955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001997632426743917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006781982698166993</v>
+      </c>
+      <c r="C4">
+        <v>0.08258514450983748</v>
+      </c>
+      <c r="D4">
+        <v>0.07269830653642474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001370907588554459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01376325089323818</v>
+      </c>
+      <c r="C6">
+        <v>0.1127050004870648</v>
+      </c>
+      <c r="D6">
+        <v>0.02413733231932864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0009147822854380913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004891316288789036</v>
+      </c>
+      <c r="C7">
+        <v>0.05800934160933621</v>
+      </c>
+      <c r="D7">
+        <v>0.03299320975248731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002465935516000561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005690367724080977</v>
+      </c>
+      <c r="C8">
+        <v>0.03434425405925773</v>
+      </c>
+      <c r="D8">
+        <v>0.04090690087524033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003239441297623198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005041270798960416</v>
+      </c>
+      <c r="C9">
+        <v>0.07012424506627125</v>
+      </c>
+      <c r="D9">
+        <v>0.07701797167716115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001617927339933218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005929309613468345</v>
+      </c>
+      <c r="C10">
+        <v>0.05662148772882925</v>
+      </c>
+      <c r="D10">
+        <v>-0.1954128124391354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003495304590835089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005586324875644005</v>
+      </c>
+      <c r="C11">
+        <v>0.07921868135729528</v>
+      </c>
+      <c r="D11">
+        <v>0.06439804335457604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001790536621290772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004061761762041235</v>
+      </c>
+      <c r="C12">
+        <v>0.06412952626444474</v>
+      </c>
+      <c r="D12">
+        <v>0.05207928637835899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001203057447603257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008257783080828959</v>
+      </c>
+      <c r="C13">
+        <v>0.06662535158216659</v>
+      </c>
+      <c r="D13">
+        <v>0.06388629897544505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00173880105311886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006573378328976465</v>
+      </c>
+      <c r="C14">
+        <v>0.04218280401159249</v>
+      </c>
+      <c r="D14">
+        <v>0.009752800565338705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009404408654921391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005817423484413334</v>
+      </c>
+      <c r="C15">
+        <v>0.04064908667221291</v>
+      </c>
+      <c r="D15">
+        <v>0.02977027557440245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001311241711285998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005000808467818248</v>
+      </c>
+      <c r="C16">
+        <v>0.0640361631060051</v>
+      </c>
+      <c r="D16">
+        <v>0.05667693896655603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-6.272117873234521e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008893406601179467</v>
+      </c>
+      <c r="C20">
+        <v>0.06356115291620744</v>
+      </c>
+      <c r="D20">
+        <v>0.04977207267441213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006931032773761801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009556562107291623</v>
+      </c>
+      <c r="C21">
+        <v>0.01945778824649066</v>
+      </c>
+      <c r="D21">
+        <v>0.04321444412526157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01553278444935553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.00691261789585554</v>
+      </c>
+      <c r="C22">
+        <v>0.08689313620957682</v>
+      </c>
+      <c r="D22">
+        <v>0.122065997023932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01531697202104679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006724522292810331</v>
+      </c>
+      <c r="C23">
+        <v>0.08740284544994761</v>
+      </c>
+      <c r="D23">
+        <v>0.1228830102872123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003031575983455203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005526734450484449</v>
+      </c>
+      <c r="C24">
+        <v>0.07566204984624844</v>
+      </c>
+      <c r="D24">
+        <v>0.06837467554722206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004791919422816126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003115253223260431</v>
+      </c>
+      <c r="C25">
+        <v>0.07790441146758664</v>
+      </c>
+      <c r="D25">
+        <v>0.06654722286331176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003144813700537806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003621161066046057</v>
+      </c>
+      <c r="C26">
+        <v>0.03868288799397226</v>
+      </c>
+      <c r="D26">
+        <v>0.02574223132218087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006701549686096942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00107986341549294</v>
+      </c>
+      <c r="C28">
+        <v>0.1046317941771716</v>
+      </c>
+      <c r="D28">
+        <v>-0.3210479186863811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0004981759224234574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002629187059779377</v>
+      </c>
+      <c r="C29">
+        <v>0.04852172800564986</v>
+      </c>
+      <c r="D29">
+        <v>0.009214432111718757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00697677786483374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009733188003398195</v>
+      </c>
+      <c r="C30">
+        <v>0.1420835142818304</v>
+      </c>
+      <c r="D30">
+        <v>0.1095068735637541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008527181402684188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006185516886067684</v>
+      </c>
+      <c r="C31">
+        <v>0.04348204287416721</v>
+      </c>
+      <c r="D31">
+        <v>0.03180469168015172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002249715901899418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003537954909296453</v>
+      </c>
+      <c r="C32">
+        <v>0.03960455661256934</v>
+      </c>
+      <c r="D32">
+        <v>0.026720755272956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002885291300499606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008967833759906002</v>
+      </c>
+      <c r="C33">
+        <v>0.08817551971849828</v>
+      </c>
+      <c r="D33">
+        <v>0.0660254271559888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004177395798018169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004087129066631706</v>
+      </c>
+      <c r="C34">
+        <v>0.05721358402461862</v>
+      </c>
+      <c r="D34">
+        <v>0.05890401008385888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.000705967763410857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005293848549701504</v>
+      </c>
+      <c r="C35">
+        <v>0.04072086221229692</v>
+      </c>
+      <c r="D35">
+        <v>0.02073100051875467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004984253354559477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00152323093560052</v>
+      </c>
+      <c r="C36">
+        <v>0.02432367139650075</v>
+      </c>
+      <c r="D36">
+        <v>0.02519704151837772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0006275063970341152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.00919148298285399</v>
+      </c>
+      <c r="C38">
+        <v>0.03801507097396205</v>
+      </c>
+      <c r="D38">
+        <v>0.01352409027459582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01451731378966266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001325662301357495</v>
+      </c>
+      <c r="C39">
+        <v>0.1139268841174147</v>
+      </c>
+      <c r="D39">
+        <v>0.07808379659823618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009508876732107929</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003420167934621382</v>
+      </c>
+      <c r="C40">
+        <v>0.08944907371863388</v>
+      </c>
+      <c r="D40">
+        <v>0.01724395928437485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008834400709389393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007202140720736647</v>
+      </c>
+      <c r="C41">
+        <v>0.03872059932227413</v>
+      </c>
+      <c r="D41">
+        <v>0.03896001865418574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002681929048450519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003915536326774883</v>
+      </c>
+      <c r="C43">
+        <v>0.05338528841915022</v>
+      </c>
+      <c r="D43">
+        <v>0.02769663827655773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01394227421204212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002968140449979231</v>
+      </c>
+      <c r="C44">
+        <v>0.104990086498279</v>
+      </c>
+      <c r="D44">
+        <v>0.06997671340185112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0007950053589556028</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001680963857977792</v>
+      </c>
+      <c r="C46">
+        <v>0.03246147249667025</v>
+      </c>
+      <c r="D46">
+        <v>0.03426559949957392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001621969130071748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002000432341091278</v>
+      </c>
+      <c r="C47">
+        <v>0.03468417873015464</v>
+      </c>
+      <c r="D47">
+        <v>0.02236510448268519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003121438159204732</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006632458941023438</v>
+      </c>
+      <c r="C48">
+        <v>0.03012473739830385</v>
+      </c>
+      <c r="D48">
+        <v>0.03677717754263669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01011170760867891</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01758377184896322</v>
+      </c>
+      <c r="C49">
+        <v>0.1897766154749334</v>
+      </c>
+      <c r="D49">
+        <v>0.006397129209634243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006667496402255419</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003448137806390735</v>
+      </c>
+      <c r="C50">
+        <v>0.04250899256014339</v>
+      </c>
+      <c r="D50">
+        <v>0.03916982319386587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0001711669102200773</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004559276648843289</v>
+      </c>
+      <c r="C51">
+        <v>0.02554705245729122</v>
+      </c>
+      <c r="D51">
+        <v>0.0213238452988224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003741779747680894</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02135206893694084</v>
+      </c>
+      <c r="C53">
+        <v>0.1715435659157845</v>
+      </c>
+      <c r="D53">
+        <v>0.02290254039146035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001923536703450385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008748215576940421</v>
+      </c>
+      <c r="C54">
+        <v>0.05295230196971071</v>
+      </c>
+      <c r="D54">
+        <v>0.04661146226146658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003896108417566773</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009541628543051342</v>
+      </c>
+      <c r="C55">
+        <v>0.1075132364247668</v>
+      </c>
+      <c r="D55">
+        <v>0.04118862805105616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002379890791872107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02024969873795473</v>
+      </c>
+      <c r="C56">
+        <v>0.1758327763051656</v>
+      </c>
+      <c r="D56">
+        <v>0.01603669114057223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.005254115858060447</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01911809407880634</v>
+      </c>
+      <c r="C58">
+        <v>0.1046061556749522</v>
+      </c>
+      <c r="D58">
+        <v>0.07277778596317627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008383858415839822</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01057537765523162</v>
+      </c>
+      <c r="C59">
+        <v>0.1685460441792099</v>
+      </c>
+      <c r="D59">
+        <v>-0.3418361537292903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004400688838644162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02503477095008536</v>
+      </c>
+      <c r="C60">
+        <v>0.2255185305388034</v>
+      </c>
+      <c r="D60">
+        <v>0.0204841585452636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01304114945921648</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001827881263099182</v>
+      </c>
+      <c r="C61">
+        <v>0.09443122273534164</v>
+      </c>
+      <c r="D61">
+        <v>0.05958013734475449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1556075081444731</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1488810828040328</v>
+      </c>
+      <c r="C62">
+        <v>0.09573010456130544</v>
+      </c>
+      <c r="D62">
+        <v>0.02598149979286304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>7.038625785757171e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00651003852207868</v>
+      </c>
+      <c r="C63">
+        <v>0.05336007158085854</v>
+      </c>
+      <c r="D63">
+        <v>0.03251640237121911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0005218113579532227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01587839373812432</v>
+      </c>
+      <c r="C64">
+        <v>0.1046506872999887</v>
+      </c>
+      <c r="D64">
+        <v>0.05719290732449991</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002466654563209116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01782640744662634</v>
+      </c>
+      <c r="C65">
+        <v>0.1215000607200016</v>
+      </c>
+      <c r="D65">
+        <v>0.02489947130497042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.005701531579386414</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01350427258521113</v>
+      </c>
+      <c r="C66">
+        <v>0.1618252901036875</v>
+      </c>
+      <c r="D66">
+        <v>0.1097173485672562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002681498882437491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01549114080329677</v>
+      </c>
+      <c r="C67">
+        <v>0.069691057252736</v>
+      </c>
+      <c r="D67">
+        <v>0.02613087400003682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006741524767421981</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001276937297322981</v>
+      </c>
+      <c r="C68">
+        <v>0.08756904269698117</v>
+      </c>
+      <c r="D68">
+        <v>-0.2569794559232949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001254545996499404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006405523376359603</v>
+      </c>
+      <c r="C69">
+        <v>0.05225206383158265</v>
+      </c>
+      <c r="D69">
+        <v>0.03759042473736258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003657082359067008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002030509828150745</v>
+      </c>
+      <c r="C70">
+        <v>0.006001931964855719</v>
+      </c>
+      <c r="D70">
+        <v>0.000620829889727559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001942344536739876</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006182953688504923</v>
+      </c>
+      <c r="C71">
+        <v>0.09220642440938571</v>
+      </c>
+      <c r="D71">
+        <v>-0.3003987590019903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005461452118471443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01641983019051216</v>
+      </c>
+      <c r="C72">
+        <v>0.1563229929641667</v>
+      </c>
+      <c r="D72">
+        <v>0.01346047532669326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01076279154293919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03187474176581844</v>
+      </c>
+      <c r="C73">
+        <v>0.2826284759334314</v>
+      </c>
+      <c r="D73">
+        <v>0.05644245968649714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006333212325700352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002275623865924381</v>
+      </c>
+      <c r="C74">
+        <v>0.1023322604237808</v>
+      </c>
+      <c r="D74">
+        <v>0.03783496817098639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004390620842488344</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01114254530787248</v>
+      </c>
+      <c r="C75">
+        <v>0.1223408654209314</v>
+      </c>
+      <c r="D75">
+        <v>0.02345168765430533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00732222899128013</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0222411882860454</v>
+      </c>
+      <c r="C76">
+        <v>0.1473533316874711</v>
+      </c>
+      <c r="D76">
+        <v>0.05903170161824446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.002107470642591374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02177686888428734</v>
+      </c>
+      <c r="C77">
+        <v>0.1127040051231356</v>
+      </c>
+      <c r="D77">
+        <v>0.05081247253660417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001463085329776988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01496330100464943</v>
+      </c>
+      <c r="C78">
+        <v>0.09624439207898286</v>
+      </c>
+      <c r="D78">
+        <v>0.07732193512625435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02163845516106792</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03852632644063909</v>
+      </c>
+      <c r="C79">
+        <v>0.1565256519452778</v>
+      </c>
+      <c r="D79">
+        <v>0.0320922497742383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006642917842791257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01011725997719303</v>
+      </c>
+      <c r="C80">
+        <v>0.03774494846975335</v>
+      </c>
+      <c r="D80">
+        <v>0.03191841135876378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002196446865274572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01586716877008134</v>
+      </c>
+      <c r="C81">
+        <v>0.1294745054773207</v>
+      </c>
+      <c r="D81">
+        <v>0.03844030224751097</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.003292721116979846</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02009410382479757</v>
+      </c>
+      <c r="C82">
+        <v>0.1391487929190154</v>
+      </c>
+      <c r="D82">
+        <v>0.04037889142839984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006835416322572512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01044058126473491</v>
+      </c>
+      <c r="C83">
+        <v>0.05909993256897063</v>
+      </c>
+      <c r="D83">
+        <v>0.04990003900418405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01163455405882597</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0120026422482629</v>
+      </c>
+      <c r="C84">
+        <v>0.03734200608407865</v>
+      </c>
+      <c r="D84">
+        <v>-0.002451276258306608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01376299910975366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02936785020855362</v>
+      </c>
+      <c r="C85">
+        <v>0.1245976676155276</v>
+      </c>
+      <c r="D85">
+        <v>0.03999010064441558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001858003735257515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00448641710004637</v>
+      </c>
+      <c r="C86">
+        <v>0.05045124576353605</v>
+      </c>
+      <c r="D86">
+        <v>0.02783286530949466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003184156090562687</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01092652178613013</v>
+      </c>
+      <c r="C87">
+        <v>0.1279878242536618</v>
+      </c>
+      <c r="D87">
+        <v>0.07619117309137072</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01132362820192843</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002939162783006019</v>
+      </c>
+      <c r="C88">
+        <v>0.06354389032294944</v>
+      </c>
+      <c r="D88">
+        <v>0.02607096893186101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01271812790349133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001223322266588287</v>
+      </c>
+      <c r="C89">
+        <v>0.1403682114691821</v>
+      </c>
+      <c r="D89">
+        <v>-0.3184915577734475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004655656596577841</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007117411794266045</v>
+      </c>
+      <c r="C90">
+        <v>0.1210787988159164</v>
+      </c>
+      <c r="D90">
+        <v>-0.3138071140461554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001172249045660411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01036538763293498</v>
+      </c>
+      <c r="C91">
+        <v>0.09913684443691591</v>
+      </c>
+      <c r="D91">
+        <v>0.02502328628582665</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01011516216389093</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001192533910924309</v>
+      </c>
+      <c r="C92">
+        <v>0.1353661720596608</v>
+      </c>
+      <c r="D92">
+        <v>-0.3215356714436498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00400311546729273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00505709371119259</v>
+      </c>
+      <c r="C93">
+        <v>0.1062737602275418</v>
+      </c>
+      <c r="D93">
+        <v>-0.299588591352235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-5.773069735250762e-06</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0216732442554047</v>
+      </c>
+      <c r="C94">
+        <v>0.1429663949907606</v>
+      </c>
+      <c r="D94">
+        <v>0.05241891523255598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002440231548588208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01658557960738589</v>
+      </c>
+      <c r="C95">
+        <v>0.1214453440739241</v>
+      </c>
+      <c r="D95">
+        <v>0.0655673785121169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004810118785581264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0371238080249187</v>
+      </c>
+      <c r="C97">
+        <v>0.224314952512271</v>
+      </c>
+      <c r="D97">
+        <v>0.002490601143725034</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001356194767270879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03805985620001272</v>
+      </c>
+      <c r="C98">
+        <v>0.2558936161873067</v>
+      </c>
+      <c r="D98">
+        <v>0.03630171947244148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860819664978334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.981325676900215</v>
+      </c>
+      <c r="C99">
+        <v>-0.1200939628102519</v>
+      </c>
+      <c r="D99">
+        <v>-0.02317835114306473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000420514625434239</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002670002226420878</v>
+      </c>
+      <c r="C101">
+        <v>0.04864800585134107</v>
+      </c>
+      <c r="D101">
+        <v>0.009605906136384366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
